--- a/leyi/leyi表结构设计.xlsx
+++ b/leyi/leyi表结构设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="802" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="802" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="用户角色表" sheetId="9" r:id="rId9"/>
     <sheet name="审批记录表" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tb_article_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文章标题概要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pk_articleDetail_articleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,10 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fk_articleDetail_articleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fk_articleBrief_themeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,6 +785,22 @@
   </si>
   <si>
     <t>desc_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_article_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_articleContent_articleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_articleContent_articleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(250)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,67 +1258,67 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="7" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="7" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1347,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1374,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -1407,12 +1407,12 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1422,84 +1422,84 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1512,7 +1512,7 @@
     <row r="14" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1521,27 +1521,27 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1551,13 +1551,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1632,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>3</v>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1709,49 +1709,49 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1799,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1826,7 +1826,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1912,14 +1912,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1964,22 +1964,22 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1987,14 +1987,14 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2036,14 +2036,14 @@
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2056,7 +2056,7 @@
     <row r="20" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2065,56 +2065,56 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2135,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2150,7 +2150,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2177,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -2195,27 +2195,27 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -2225,37 +2225,37 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2263,31 +2263,31 @@
         <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2295,14 +2295,14 @@
         <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2315,7 +2315,7 @@
     <row r="14" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2324,79 +2324,79 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2430,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2457,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -2475,12 +2475,12 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -2490,57 +2490,57 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2550,22 +2550,22 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2573,31 +2573,31 @@
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2605,14 +2605,14 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2625,7 +2625,7 @@
     <row r="16" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2634,66 +2634,66 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2734,7 +2734,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2779,22 +2779,22 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2842,7 +2842,7 @@
     <row r="13" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2851,49 +2851,49 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2927,7 +2927,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2954,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2972,12 +2972,12 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -2987,22 +2987,22 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3010,31 +3010,31 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3042,20 +3042,20 @@
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3064,66 +3064,66 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3156,7 +3156,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3183,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -3194,29 +3194,29 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3224,14 +3224,14 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3239,14 +3239,14 @@
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3259,7 +3259,7 @@
     <row r="10" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3268,27 +3268,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -3340,7 +3340,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3367,7 +3367,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3400,22 +3400,22 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3423,29 +3423,29 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3453,14 +3453,14 @@
         <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3473,7 +3473,7 @@
     <row r="12" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3482,27 +3482,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -3529,16 +3529,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -3546,13 +3546,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
